--- a/Data/aprofit_decade_prov_spp.xlsx
+++ b/Data/aprofit_decade_prov_spp.xlsx
@@ -233,6 +233,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -320,7 +321,7 @@
       <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -3216,13 +3217,13 @@
   </sheetPr>
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C192" activeCellId="0" sqref="C192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C187" activeCellId="0" sqref="C187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1124.499328125</v>
@@ -3743,7 +3744,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>35237.4649807692</v>

--- a/Data/aprofit_decade_prov_spp.xlsx
+++ b/Data/aprofit_decade_prov_spp.xlsx
@@ -149,10 +149,10 @@
     <t xml:space="preserve">Alnus glutinosa</t>
   </si>
   <si>
-    <t xml:space="preserve">Juniperus communis</t>
+    <t xml:space="preserve">Cedrus spp./Cupressus spp./Juniperus communis/Juniperus oxycedrus/Juniperus phoenicea/Juniperus thurifera/Larix spp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Prunus spp.</t>
+    <t xml:space="preserve">Acer campestre/Acer monspessulanum/Acer opalus/Arbutus unedo/Amelanchier ovalis/Buxus sempervirens/Celtis australis/Cornus sanguinea/Corylus avellana/Crataegus spp./Juglans spp./Olea europaea/Phillyrea latifolia/Prunus spp./Salix spp./Sambucus spp./Sorbus spp./Tilia spp.</t>
   </si>
   <si>
     <t xml:space="preserve">Betula spp.</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">Quercus ilex</t>
   </si>
   <si>
-    <t xml:space="preserve">Quercus pubescens</t>
+    <t xml:space="preserve">Quercus pubescens/Quercus canariensis/Quercus petraea/Quercus robur</t>
   </si>
   <si>
     <t xml:space="preserve">Quercus suber</t>
@@ -321,7 +321,7 @@
       <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -3217,13 +3217,13 @@
   </sheetPr>
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C187" activeCellId="0" sqref="C187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E203" activeCellId="0" sqref="E203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Data/aprofit_decade_prov_spp.xlsx
+++ b/Data/aprofit_decade_prov_spp.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="64">
   <si>
     <t xml:space="preserve">Decade</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">Eucaliptus sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eucaliptus sp.</t>
   </si>
   <si>
     <t xml:space="preserve">F.sylvatica</t>
@@ -149,7 +146,7 @@
     <t xml:space="preserve">Alnus glutinosa</t>
   </si>
   <si>
-    <t xml:space="preserve">Cedrus spp./Cupressus spp./Juniperus communis/Juniperus oxycedrus/Juniperus phoenicea/Juniperus thurifera/Larix spp.</t>
+    <t xml:space="preserve">Cedrus spp./Cupressus spp./Juniperus communis/Juniperus oxycedrus/Juniperus phoenicea/Juniperus thurifera/Larix spp./Picea abies</t>
   </si>
   <si>
     <t xml:space="preserve">Acer campestre/Acer monspessulanum/Acer opalus/Arbutus unedo/Amelanchier ovalis/Buxus sempervirens/Celtis australis/Cornus sanguinea/Corylus avellana/Crataegus spp./Juglans spp./Olea europaea/Phillyrea latifolia/Prunus spp./Salix spp./Sambucus spp./Sorbus spp./Tilia spp.</t>
@@ -164,16 +161,13 @@
     <t xml:space="preserve">Eucalyptus spp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Populus spp.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fagus sylvatica</t>
   </si>
   <si>
     <t xml:space="preserve">Fraxinus spp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Picea abies</t>
+    <t xml:space="preserve">Populus spp.</t>
   </si>
   <si>
     <t xml:space="preserve">Pinus halepensis</t>
@@ -315,10 +309,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D204" activeCellId="0" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -438,7 +432,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>789.428571428571</v>
+        <v>697.575</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,7 +446,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>54.6</v>
+        <v>5476.014675</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,7 +460,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>5476.014675</v>
+        <v>113.986625</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,7 +474,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>113.986625</v>
+        <v>7389.57040625</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,7 +488,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>7389.57040625</v>
+        <v>48168.5854484375</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,7 +502,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>48168.5854484375</v>
+        <v>1832.103953125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1832.103953125</v>
+        <v>4035.830421875</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,7 +530,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4035.830421875</v>
+        <v>34593.4149299265</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>34593.4149299265</v>
+        <v>2176.156203125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>2176.156203125</v>
+        <v>8964.54357349235</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>8964.54357349235</v>
+        <v>5107.36025</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,7 +586,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5107.36025</v>
+        <v>104055.85058375</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +600,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>104055.85058375</v>
+        <v>5396.8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,7 +614,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>5396.8</v>
+        <v>247.416271875</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +628,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>247.416271875</v>
+        <v>38748.4442625</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,7 +642,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>38748.4442625</v>
+        <v>1532.80785625</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,7 +656,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1532.80785625</v>
+        <v>106.78125</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,7 +670,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>106.78125</v>
+        <v>131.912</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>131.912</v>
+        <v>0.667625</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,13 +692,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.667625</v>
+        <v>124.05</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,13 +706,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>124.05</v>
+        <v>803.388375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,13 +720,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>803.388375</v>
+        <v>1124.499328125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1124.499328125</v>
+        <v>35237.4649807692</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,13 +748,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>35237.4649807692</v>
+        <v>45.345</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>45.345</v>
+        <v>10532.9559495833</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,13 +776,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>10532.9559495833</v>
+        <v>17856.5744875</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,13 +790,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>18521.2804142857</v>
+        <v>5952.0787275</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,13 +804,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>13203.633</v>
+        <v>689.8213375</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,13 +818,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>5952.0787275</v>
+        <v>33900.01390625</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,13 +832,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>689.8213375</v>
+        <v>18882.3205875</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,13 +846,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>33900.01390625</v>
+        <v>3902.785746875</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,13 +860,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>18882.3205875</v>
+        <v>3686.940953125</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,13 +874,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>3902.785746875</v>
+        <v>2170.21244126471</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,13 +888,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>3686.940953125</v>
+        <v>20439.0602828125</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,13 +902,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2170.21244126471</v>
+        <v>10518.0089264994</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,13 +916,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>20439.0602828125</v>
+        <v>18091.9459709375</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,13 +930,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>10518.0089264994</v>
+        <v>50319.3169475</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,13 +944,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>18091.9459709375</v>
+        <v>2299.81875</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,13 +958,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>50319.3169475</v>
+        <v>259.477</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,13 +972,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>2299.81875</v>
+        <v>38738.5650275</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,13 +986,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>259.477</v>
+        <v>848.0975</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,13 +1000,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>38738.5650275</v>
+        <v>1505.1423125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,13 +1014,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>848.0975</v>
+        <v>489.8724375</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,13 +1028,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1505.1423125</v>
+        <v>5.665</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,10 +1045,10 @@
         <v>32</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>489.8724375</v>
+        <v>5163.498125</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,10 +1059,10 @@
         <v>32</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>5.665</v>
+        <v>58.128</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,13 +1070,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>5163.498125</v>
+        <v>4393.9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,13 +1084,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>58.128</v>
+        <v>6397.31413461538</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,13 +1098,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>4393.9</v>
+        <v>0.22975</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,13 +1112,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>6397.31413461538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,13 +1126,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.22975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,13 +1140,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0</v>
+        <v>139.911875</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,13 +1154,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0</v>
+        <v>25.147375</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,13 +1168,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0</v>
+        <v>6908.721125</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,13 +1182,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>139.911875</v>
+        <v>1253.097484375</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,13 +1196,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>25.147375</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,13 +1210,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>6908.721125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,13 +1224,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1253.097484375</v>
+        <v>46984.6072285478</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,13 +1238,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>3.5</v>
+        <v>104.625</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,13 +1252,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,13 +1266,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>46984.6072285478</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,13 +1280,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>104.625</v>
+        <v>40084.336793125</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,13 +1294,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>2.625</v>
+        <v>8034.915515625</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,13 +1308,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>30</v>
+        <v>152.5929375</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,13 +1322,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>40084.336793125</v>
+        <v>11643.86672625</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,13 +1336,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>8034.915515625</v>
+        <v>2.867475</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,13 +1350,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>152.5929375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,13 +1364,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>11643.86672625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,13 +1378,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>2.867475</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1395,7 @@
         <v>33</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0</v>
@@ -1415,7 +1409,7 @@
         <v>33</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>0</v>
@@ -1429,10 +1423,10 @@
         <v>33</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>12.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,13 +1434,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0</v>
+        <v>181.832875</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,13 +1448,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
@@ -1482,13 +1476,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>181.832875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,13 +1490,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>5.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,10 +1504,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0</v>
@@ -1524,13 +1518,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0</v>
+        <v>84.625</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,13 +1532,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0</v>
+        <v>9831.826375</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,10 +1546,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0</v>
@@ -1566,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
@@ -1580,13 +1574,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>84.625</v>
+        <v>1319.2899117625</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,13 +1588,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>9831.826375</v>
+        <v>899.9855</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,13 +1602,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
@@ -1636,13 +1630,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>1319.2899117625</v>
+        <v>4307.745</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,13 +1644,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>899.9855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,13 +1658,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,13 +1672,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0</v>
+        <v>1768.978275</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,13 +1686,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>4307.745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,10 +1700,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0</v>
@@ -1720,13 +1714,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>2.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,948 +1728,948 @@
         <v>4</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>1768.978275</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>0</v>
+        <v>1216.60641663</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0</v>
+        <v>859.5824625</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>0</v>
+        <v>696.642</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0.75</v>
+        <v>14834.3242546154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>1216.60641663</v>
+        <v>13.7293333328</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>859.5824625</v>
+        <v>3379.028544</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>696.642</v>
+        <v>294.96842</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>14834.3242546154</v>
+        <v>5115.8665</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>13.7293333328</v>
+        <v>236.70094</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>3379.028544</v>
+        <v>4705.3335075</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>294.96842</v>
+        <v>70494.540003</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>5115.8665</v>
+        <v>1343.285645</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>236.70094</v>
+        <v>3676.6418125</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>4705.3335075</v>
+        <v>39168.2241165</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>70494.540003</v>
+        <v>6933.364675</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>1343.285645</v>
+        <v>18830.6037518215</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>3676.6418125</v>
+        <v>4013.6820475</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>39168.2241165</v>
+        <v>160585.97648563</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>6933.364675</v>
+        <v>12783.38084163</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>18830.6037518215</v>
+        <v>42.638735</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>4013.6820475</v>
+        <v>56082.631426</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>160585.97648563</v>
+        <v>119.738285</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>12783.38084163</v>
+        <v>117.5831</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>42.638735</v>
+        <v>148.43227</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>56082.631426</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>119.738285</v>
+        <v>400.2623</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>117.5831</v>
+        <v>361.2229925</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>148.43227</v>
+        <v>2629.843265</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0.0264</v>
+        <v>49239.3177030769</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>400.2623</v>
+        <v>56.621422222</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>361.2229925</v>
+        <v>6946.602036347</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>2629.843265</v>
+        <v>5983.19021</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>49239.3177030769</v>
+        <v>5781.973234</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>56.621422222</v>
+        <v>1376.932434</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>6946.602036347</v>
+        <v>31731.118429</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>5983.19021</v>
+        <v>54198.7515335</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>5781.973234</v>
+        <v>5325.57525</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>1376.932434</v>
+        <v>5342.1511088</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>31731.118429</v>
+        <v>6512.18129761</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>54198.7515335</v>
+        <v>55717.3084595</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>5325.57525</v>
+        <v>20488.06283499</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>5342.1511088</v>
+        <v>25714.334621</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>6512.18129761</v>
+        <v>64513.2642135</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>55717.3084595</v>
+        <v>3060.0441</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>20488.06283499</v>
+        <v>411.699665</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>25714.334621</v>
+        <v>60767.0014146</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>64513.2642135</v>
+        <v>480.961665</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>3060.0441</v>
+        <v>1210.07547</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>411.699665</v>
+        <v>652.3809</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>60767.0014146</v>
+        <v>3.6637</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>480.961665</v>
+        <v>2208.9644</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>1210.07547</v>
+        <v>39.1509</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>652.3809</v>
+        <v>407.7993</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>3.6637</v>
+        <v>5058.50671538462</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>2208.9644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>39.1509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>407.7993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>5058.50671538462</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>0</v>
+        <v>128.5884</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>0</v>
+        <v>4320.25355</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>0</v>
+        <v>6795.299795</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>36.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>128.5884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>4320.25355</v>
+        <v>55842.43594272</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>6795.299795</v>
+        <v>394.084075</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>0</v>
+        <v>29.4942</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>0</v>
@@ -2683,139 +2677,139 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>55842.43594272</v>
+        <v>50694.1240155</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>394.084075</v>
+        <v>6513.473475</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>29.4942</v>
+        <v>137.8355</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>0</v>
+        <v>18661.668645</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>50694.1240155</v>
+        <v>112.9362</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>6513.473475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>137.8355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>18661.668645</v>
+        <v>1.0721</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>112.9362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>0</v>
@@ -2823,41 +2817,41 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>0</v>
+        <v>0.11875</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>1.0721</v>
+        <v>330.156615384615</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>0</v>
@@ -2865,55 +2859,55 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>0.11875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>330.156615384615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>0</v>
@@ -2921,55 +2915,55 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>0.3</v>
+        <v>257.9812</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>0</v>
+        <v>21165.8166975</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>0</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>0</v>
@@ -2977,139 +2971,139 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>257.9812</v>
+        <v>2753.71630475</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>21165.8166975</v>
+        <v>22.229</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>0.904</v>
+        <v>12.788235294</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>0</v>
+        <v>3.707275</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>2753.71630475</v>
+        <v>20573.352365</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>22.229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>12.788235294</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>3.707275</v>
+        <v>4425.0442</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>20573.352365</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>0</v>
@@ -3117,85 +3111,29 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>4425.0442</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D202" s="0" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D203" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D204" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D205" s="0" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -3215,10 +3153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E203" activeCellId="0" sqref="E203"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3231,16 +3169,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,7 +3189,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>289.625</v>
@@ -3268,7 +3206,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>631.5693125</v>
@@ -3285,7 +3223,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1213.69003125</v>
@@ -3302,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>8390.49552307692</v>
@@ -3319,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>84.875</v>
@@ -3336,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2704.57870827778</v>
@@ -3353,10 +3291,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>789.428571428571</v>
+        <v>697.575</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>12</v>
@@ -3370,13 +3308,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>54.6</v>
+        <v>5476.014675</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,10 +3325,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>5476.014675</v>
+        <v>113.986625</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>14</v>
@@ -3404,10 +3342,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>113.986625</v>
+        <v>7389.57040625</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>15</v>
@@ -3421,10 +3359,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>7389.57040625</v>
+        <v>48168.5854484375</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>16</v>
@@ -3438,10 +3376,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>48168.5854484375</v>
+        <v>1832.103953125</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>17</v>
@@ -3455,10 +3393,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1832.103953125</v>
+        <v>4035.830421875</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>18</v>
@@ -3472,10 +3410,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4035.830421875</v>
+        <v>34593.4149299265</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>19</v>
@@ -3489,10 +3427,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>34593.4149299265</v>
+        <v>2176.156203125</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>20</v>
@@ -3506,10 +3444,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>2176.156203125</v>
+        <v>8964.54357349235</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>21</v>
@@ -3523,10 +3461,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>8964.54357349235</v>
+        <v>5107.36025</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>22</v>
@@ -3540,10 +3478,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5107.36025</v>
+        <v>104055.85058375</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>23</v>
@@ -3557,10 +3495,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>104055.85058375</v>
+        <v>5396.8</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>24</v>
@@ -3574,10 +3512,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>5396.8</v>
+        <v>247.416271875</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>25</v>
@@ -3591,10 +3529,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>247.416271875</v>
+        <v>38748.4442625</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>26</v>
@@ -3608,10 +3546,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>38748.4442625</v>
+        <v>1532.80785625</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>27</v>
@@ -3625,10 +3563,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1532.80785625</v>
+        <v>106.78125</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>28</v>
@@ -3642,10 +3580,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>106.78125</v>
+        <v>131.912</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>29</v>
@@ -3659,10 +3597,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>131.912</v>
+        <v>0.667625</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>30</v>
@@ -3673,16 +3611,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.667625</v>
+        <v>124.05</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,16 +3628,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>124.05</v>
+        <v>803.388375</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,16 +3645,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>803.388375</v>
+        <v>1124.499328125</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,16 +3662,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1124.499328125</v>
+        <v>35237.4649807692</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,16 +3679,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>35237.4649807692</v>
+        <v>45.345</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,16 +3696,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>45.345</v>
+        <v>10532.9559495833</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,16 +3713,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>10532.9559495833</v>
+        <v>17856.5744875</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,16 +3730,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>18521.2804142857</v>
+        <v>5952.0787275</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,16 +3747,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>13203.633</v>
+        <v>689.8213375</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,16 +3764,16 @@
         <v>4</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>5952.0787275</v>
+        <v>33900.01390625</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,16 +3781,16 @@
         <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>689.8213375</v>
+        <v>18882.3205875</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,16 +3798,16 @@
         <v>4</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>33900.01390625</v>
+        <v>3902.785746875</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,16 +3815,16 @@
         <v>4</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>18882.3205875</v>
+        <v>3686.940953125</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,16 +3832,16 @@
         <v>4</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>3902.785746875</v>
+        <v>2170.21244126471</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,16 +3849,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>3686.940953125</v>
+        <v>20439.0602828125</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,16 +3866,16 @@
         <v>4</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2170.21244126471</v>
+        <v>10518.0089264994</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,16 +3883,16 @@
         <v>4</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>20439.0602828125</v>
+        <v>18091.9459709375</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,16 +3900,16 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>10518.0089264994</v>
+        <v>50319.3169475</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,16 +3917,16 @@
         <v>4</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>18091.9459709375</v>
+        <v>2299.81875</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,16 +3934,16 @@
         <v>4</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>50319.3169475</v>
+        <v>259.477</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,16 +3951,16 @@
         <v>4</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>2299.81875</v>
+        <v>38738.5650275</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,16 +3968,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>259.477</v>
+        <v>848.0975</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,16 +3985,16 @@
         <v>4</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>38738.5650275</v>
+        <v>1505.1423125</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,16 +4002,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>62</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>848.0975</v>
+        <v>489.8724375</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,16 +4019,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1505.1423125</v>
+        <v>5.665</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,13 +4039,13 @@
         <v>32</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>489.8724375</v>
+        <v>5163.498125</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,13 +4056,13 @@
         <v>32</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>5.665</v>
+        <v>58.128</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,16 +4070,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>5163.498125</v>
+        <v>4393.9</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4149,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>58.128</v>
+        <v>6397.31413461538</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,16 +4104,16 @@
         <v>4</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>4393.9</v>
+        <v>0.22975</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,16 +4121,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>6397.31413461538</v>
+        <v>0</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,16 +4138,16 @@
         <v>4</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.22975</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,16 +4155,16 @@
         <v>4</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0</v>
+        <v>139.911875</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,16 +4172,16 @@
         <v>4</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0</v>
+        <v>25.147375</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4251,16 +4189,16 @@
         <v>4</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0</v>
+        <v>6908.721125</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,16 +4206,16 @@
         <v>4</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>139.911875</v>
+        <v>1253.097484375</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,16 +4223,16 @@
         <v>4</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>25.147375</v>
+        <v>3.5</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,16 +4240,16 @@
         <v>4</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>6908.721125</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,16 +4257,16 @@
         <v>4</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1253.097484375</v>
+        <v>46984.6072285478</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,16 +4274,16 @@
         <v>4</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>3.5</v>
+        <v>104.625</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,16 +4291,16 @@
         <v>4</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0</v>
+        <v>2.625</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,16 +4308,16 @@
         <v>4</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>46984.6072285478</v>
+        <v>30</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,16 +4325,16 @@
         <v>4</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>104.625</v>
+        <v>40084.336793125</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4404,16 +4342,16 @@
         <v>4</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>2.625</v>
+        <v>8034.915515625</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4421,16 +4359,16 @@
         <v>4</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>30</v>
+        <v>152.5929375</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,16 +4376,16 @@
         <v>4</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>40084.336793125</v>
+        <v>11643.86672625</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,16 +4393,16 @@
         <v>4</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>8034.915515625</v>
+        <v>2.867475</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,16 +4410,16 @@
         <v>4</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>152.5929375</v>
+        <v>0</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,16 +4427,16 @@
         <v>4</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>11643.86672625</v>
+        <v>0</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,16 +4444,16 @@
         <v>4</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>2.867475</v>
+        <v>12.375</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,13 +4464,13 @@
         <v>33</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,13 +4481,13 @@
         <v>33</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,13 +4498,13 @@
         <v>33</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>12.375</v>
+        <v>0</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,16 +4512,16 @@
         <v>4</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0</v>
+        <v>181.832875</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,16 +4529,16 @@
         <v>4</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0</v>
+        <v>5.625</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,16 +4546,16 @@
         <v>4</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,16 +4563,16 @@
         <v>4</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>181.832875</v>
+        <v>0</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4642,16 +4580,16 @@
         <v>4</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>5.625</v>
+        <v>0</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,16 +4597,16 @@
         <v>4</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,16 +4614,16 @@
         <v>4</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0</v>
+        <v>84.625</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,16 +4631,16 @@
         <v>4</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0</v>
+        <v>9831.826375</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,16 +4648,16 @@
         <v>4</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,16 +4665,16 @@
         <v>4</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,16 +4682,16 @@
         <v>4</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>84.625</v>
+        <v>1319.2899117625</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,16 +4699,16 @@
         <v>4</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>9831.826375</v>
+        <v>899.9855</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,16 +4716,16 @@
         <v>4</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,16 +4733,16 @@
         <v>4</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,16 +4750,16 @@
         <v>4</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>1319.2899117625</v>
+        <v>4307.745</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,16 +4767,16 @@
         <v>4</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>899.9855</v>
+        <v>0</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,16 +4784,16 @@
         <v>4</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4863,16 +4801,16 @@
         <v>4</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0</v>
+        <v>1768.978275</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,16 +4818,16 @@
         <v>4</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>4307.745</v>
+        <v>0</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,16 +4835,16 @@
         <v>4</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,16 +4852,16 @@
         <v>4</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>2.625</v>
+        <v>0</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,1852 +4869,1716 @@
         <v>4</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>1768.978275</v>
+        <v>0.75</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>0</v>
+        <v>1216.60641663</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0</v>
+        <v>859.5824625</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>0</v>
+        <v>696.642</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0.75</v>
+        <v>14834.3242546154</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>1216.60641663</v>
+        <v>13.7293333328</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>859.5824625</v>
+        <v>3379.028544</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>696.642</v>
+        <v>294.96842</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>14834.3242546154</v>
+        <v>5115.8665</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>13.7293333328</v>
+        <v>236.70094</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>3379.028544</v>
+        <v>4705.3335075</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>294.96842</v>
+        <v>70494.540003</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>54.6</v>
+        <v>1343.285645</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>5115.8665</v>
+        <v>3676.6418125</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>236.70094</v>
+        <v>39168.2241165</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>4705.3335075</v>
+        <v>6933.364675</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>70494.540003</v>
+        <v>18830.6037518215</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>1343.285645</v>
+        <v>4013.6820475</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>3676.6418125</v>
+        <v>160585.97648563</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>39168.2241165</v>
+        <v>12783.38084163</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>6933.364675</v>
+        <v>42.638735</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>18830.6037518215</v>
+        <v>56082.631426</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>4013.6820475</v>
+        <v>119.738285</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>160585.97648563</v>
+        <v>117.5831</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>12783.38084163</v>
+        <v>148.43227</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>42.638735</v>
+        <v>0.0264</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>56082.631426</v>
+        <v>400.2623</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>119.738285</v>
+        <v>361.2229925</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>117.5831</v>
+        <v>2629.843265</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>148.43227</v>
+        <v>49239.3177030769</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0.0264</v>
+        <v>56.621422222</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>400.2623</v>
+        <v>6946.602036347</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>361.2229925</v>
+        <v>5983.19021</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>2629.843265</v>
+        <v>5781.973234</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>49239.3177030769</v>
+        <v>1376.932434</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>56.621422222</v>
+        <v>31731.118429</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>6946.602036347</v>
+        <v>54198.7515335</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>5983.19021</v>
+        <v>5325.57525</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>13203.633</v>
+        <v>5342.1511088</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>5781.973234</v>
+        <v>6512.18129761</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>1376.932434</v>
+        <v>55717.3084595</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>31731.118429</v>
+        <v>20488.06283499</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>54198.7515335</v>
+        <v>25714.334621</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>5325.57525</v>
+        <v>64513.2642135</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>5342.1511088</v>
+        <v>3060.0441</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>6512.18129761</v>
+        <v>411.699665</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>55717.3084595</v>
+        <v>60767.0014146</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>20488.06283499</v>
+        <v>480.961665</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>25714.334621</v>
+        <v>1210.07547</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>64513.2642135</v>
+        <v>652.3809</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>3060.0441</v>
+        <v>3.6637</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>411.699665</v>
+        <v>2208.9644</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>60767.0014146</v>
+        <v>39.1509</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>480.961665</v>
+        <v>407.7993</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>1210.07547</v>
+        <v>5058.50671538462</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>652.3809</v>
+        <v>0</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>3.6637</v>
+        <v>0</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>2208.9644</v>
+        <v>0</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>39.1509</v>
+        <v>36.5</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>407.7993</v>
+        <v>128.5884</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>5058.50671538462</v>
+        <v>4320.25355</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>0</v>
+        <v>6795.299795</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>0</v>
+        <v>55842.43594272</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>36.5</v>
+        <v>394.084075</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>128.5884</v>
+        <v>29.4942</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>4320.25355</v>
+        <v>0</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>6795.299795</v>
+        <v>50694.1240155</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>0</v>
+        <v>6513.473475</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>0</v>
+        <v>137.8355</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>55842.43594272</v>
+        <v>18661.668645</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>394.084075</v>
+        <v>112.9362</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>29.4942</v>
+        <v>0</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>50694.1240155</v>
+        <v>1.0721</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>6513.473475</v>
+        <v>0</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>137.8355</v>
+        <v>0</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>18661.668645</v>
+        <v>0.11875</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>112.9362</v>
+        <v>330.156615384615</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>1.0721</v>
+        <v>0</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>0.11875</v>
+        <v>257.9812</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>330.156615384615</v>
+        <v>21165.8166975</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>0</v>
+        <v>0.904</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>0</v>
+        <v>2753.71630475</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>0</v>
+        <v>22.229</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>0</v>
+        <v>12.788235294</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>0</v>
+        <v>3.707275</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>257.9812</v>
+        <v>20573.352365</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>21165.8166975</v>
+        <v>0</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>0.904</v>
+        <v>0.22</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>0</v>
+        <v>4425.0442</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>2753.71630475</v>
+        <v>0.8</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>22.229</v>
+        <v>0</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>12.788235294</v>
+        <v>0</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>3.707275</v>
+        <v>0.43</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D202" s="0" t="n">
-        <v>20573.352365</v>
-      </c>
-      <c r="E202" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D203" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D204" s="0" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E204" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D205" s="0" t="n">
-        <v>4425.0442</v>
-      </c>
-      <c r="E205" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D206" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E206" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D207" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D208" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E208" s="0" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D209" s="0" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aprofit_decade_prov_spp.xlsx
+++ b/Data/aprofit_decade_prov_spp.xlsx
@@ -311,11 +311,11 @@
   </sheetPr>
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D204" activeCellId="0" sqref="D204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -348,7 +348,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>289.625</v>
+        <v>249.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,7 +362,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>631.5693125</v>
+        <v>863.35545</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,7 +376,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1213.69003125</v>
+        <v>1110.152025</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,7 +390,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>8390.49552307692</v>
+        <v>8097.98103384615</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,7 +404,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>84.875</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,7 +418,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2704.57870827778</v>
+        <v>3213.26296662222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,7 +432,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>697.575</v>
+        <v>577.86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,7 +446,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5476.014675</v>
+        <v>6306.61174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,7 +460,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>113.986625</v>
+        <v>96.9893</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +474,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>7389.57040625</v>
+        <v>7396.456325</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,7 +488,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>48168.5854484375</v>
+        <v>52411.56835875</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,7 +502,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1832.103953125</v>
+        <v>1637.9831625</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4035.830421875</v>
+        <v>4050.7643375</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,7 +530,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>34593.4149299265</v>
+        <v>44940.7319439412</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2176.156203125</v>
+        <v>2298.8249625</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>8964.54357349235</v>
+        <v>9863.63485879388</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5107.36025</v>
+        <v>4710.5882</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +586,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>104055.85058375</v>
+        <v>111334.880467</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,7 +600,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5396.8</v>
+        <v>5827.64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,7 +614,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>247.416271875</v>
+        <v>330.4330175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,7 +628,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>38748.4442625</v>
+        <v>40058.75541</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,7 +642,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1532.80785625</v>
+        <v>1490.446285</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,7 +656,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>106.78125</v>
+        <v>88.225</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,7 +670,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>131.912</v>
+        <v>142.5296</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.667625</v>
+        <v>0.6341</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>124.05</v>
+        <v>233.44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>803.388375</v>
+        <v>856.1107</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1124.499328125</v>
+        <v>1519.7994625</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>35237.4649807692</v>
+        <v>36619.1335230769</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>45.345</v>
+        <v>117.276</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10532.9559495833</v>
+        <v>10385.2647596667</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>17856.5744875</v>
+        <v>19151.55959</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5952.0787275</v>
+        <v>6502.862982</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>689.8213375</v>
+        <v>766.55707</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,7 +824,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>33900.01390625</v>
+        <v>35673.911125</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>18882.3205875</v>
+        <v>18460.75647</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>3902.785746875</v>
+        <v>4082.7285975</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>3686.940953125</v>
+        <v>3289.8527625</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2170.21244126471</v>
+        <v>2256.16995301176</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>20439.0602828125</v>
+        <v>18776.44822625</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>10518.0089264994</v>
+        <v>10297.0071411995</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>18091.9459709375</v>
+        <v>16889.85677675</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,7 +936,7 @@
         <v>23</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>50319.3169475</v>
+        <v>51282.053558</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,7 +950,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2299.81875</v>
+        <v>1964.055</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,7 +964,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>259.477</v>
+        <v>220.9816</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,7 +978,7 @@
         <v>26</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>38738.5650275</v>
+        <v>38281.152022</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +992,7 @@
         <v>27</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>848.0975</v>
+        <v>807.178</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,7 +1006,7 @@
         <v>28</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1505.1423125</v>
+        <v>1336.71385</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,7 +1020,7 @@
         <v>29</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>489.8724375</v>
+        <v>569.09795</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>5.665</v>
+        <v>6.532</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>5163.498125</v>
+        <v>4300.1985</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>58.128</v>
+        <v>69.6024</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>4393.9</v>
+        <v>3567.42</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>6397.31413461538</v>
+        <v>5943.62823076923</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.22975</v>
+        <v>0.1838</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>139.911875</v>
+        <v>111.9295</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1160,7 @@
         <v>14</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>25.147375</v>
+        <v>38.8179</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>6908.721125</v>
+        <v>7225.6769</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1253.097484375</v>
+        <v>1030.1779875</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,7 +1230,7 @@
         <v>19</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>46984.6072285478</v>
+        <v>49271.3857828382</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>104.625</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1258,7 @@
         <v>21</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,7 +1272,7 @@
         <v>22</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>40084.336793125</v>
+        <v>41508.6694345</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,7 +1300,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>8034.915515625</v>
+        <v>7549.9324125</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>152.5929375</v>
+        <v>221.27435</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,7 +1328,7 @@
         <v>26</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>11643.86672625</v>
+        <v>11813.293381</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,7 +1342,7 @@
         <v>27</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>2.867475</v>
+        <v>2.29398</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,7 +1384,7 @@
         <v>30</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>12.375</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>181.832875</v>
+        <v>200.420146153846</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>5.625</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>84.625</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,7 +1538,7 @@
         <v>16</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>9831.826375</v>
+        <v>10027.3611</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,7 +1580,7 @@
         <v>19</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1319.2899117625</v>
+        <v>1462.83192941</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>899.9855</v>
+        <v>744.4884</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>132.9</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1636,7 @@
         <v>23</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>4307.745</v>
+        <v>5178.996</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,7 +1664,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1678,7 @@
         <v>26</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1768.978275</v>
+        <v>1748.18262</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,7 +1734,7 @@
         <v>30</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,11 +3155,11 @@
   </sheetPr>
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E95" activeCellId="0" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.19"/>
   </cols>
@@ -3192,7 +3192,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>289.625</v>
+        <v>249.4</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>6</v>
@@ -3209,7 +3209,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>631.5693125</v>
+        <v>863.35545</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>7</v>
@@ -3226,7 +3226,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1213.69003125</v>
+        <v>1110.152025</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
@@ -3243,7 +3243,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>8390.49552307692</v>
+        <v>8097.98103384615</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -3260,7 +3260,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>84.875</v>
+        <v>69</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
@@ -3277,7 +3277,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2704.57870827778</v>
+        <v>3213.26296662222</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>11</v>
@@ -3294,7 +3294,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>697.575</v>
+        <v>577.86</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>12</v>
@@ -3311,7 +3311,7 @@
         <v>46</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5476.014675</v>
+        <v>6306.61174</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>13</v>
@@ -3328,7 +3328,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>113.986625</v>
+        <v>96.9893</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>14</v>
@@ -3345,7 +3345,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>7389.57040625</v>
+        <v>7396.456325</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>15</v>
@@ -3362,7 +3362,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>48168.5854484375</v>
+        <v>52411.56835875</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>16</v>
@@ -3379,7 +3379,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1832.103953125</v>
+        <v>1637.9831625</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>17</v>
@@ -3396,7 +3396,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4035.830421875</v>
+        <v>4050.7643375</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>18</v>
@@ -3413,7 +3413,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>34593.4149299265</v>
+        <v>44940.7319439412</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>19</v>
@@ -3430,7 +3430,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2176.156203125</v>
+        <v>2298.8249625</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>8964.54357349235</v>
+        <v>9863.63485879388</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>21</v>
@@ -3464,7 +3464,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5107.36025</v>
+        <v>4710.5882</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>22</v>
@@ -3481,7 +3481,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>104055.85058375</v>
+        <v>111334.880467</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>23</v>
@@ -3498,7 +3498,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5396.8</v>
+        <v>5827.64</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>24</v>
@@ -3515,7 +3515,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>247.416271875</v>
+        <v>330.4330175</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>25</v>
@@ -3532,7 +3532,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>38748.4442625</v>
+        <v>40058.75541</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>26</v>
@@ -3549,7 +3549,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1532.80785625</v>
+        <v>1490.446285</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>27</v>
@@ -3566,7 +3566,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>106.78125</v>
+        <v>88.225</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>28</v>
@@ -3583,7 +3583,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>131.912</v>
+        <v>142.5296</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>29</v>
@@ -3600,7 +3600,7 @@
         <v>63</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.667625</v>
+        <v>0.6341</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>30</v>
@@ -3617,7 +3617,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>124.05</v>
+        <v>233.44</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>6</v>
@@ -3634,7 +3634,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>803.388375</v>
+        <v>856.1107</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>7</v>
@@ -3651,7 +3651,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1124.499328125</v>
+        <v>1519.7994625</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
@@ -3668,7 +3668,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>35237.4649807692</v>
+        <v>36619.1335230769</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>9</v>
@@ -3685,7 +3685,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>45.345</v>
+        <v>117.276</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>10</v>
@@ -3702,7 +3702,7 @@
         <v>44</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10532.9559495833</v>
+        <v>10385.2647596667</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>11</v>
@@ -3719,7 +3719,7 @@
         <v>45</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>17856.5744875</v>
+        <v>19151.55959</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>12</v>
@@ -3736,7 +3736,7 @@
         <v>46</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5952.0787275</v>
+        <v>6502.862982</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>13</v>
@@ -3753,7 +3753,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>689.8213375</v>
+        <v>766.55707</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>14</v>
@@ -3770,7 +3770,7 @@
         <v>48</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>33900.01390625</v>
+        <v>35673.911125</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>15</v>
@@ -3787,7 +3787,7 @@
         <v>49</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>18882.3205875</v>
+        <v>18460.75647</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>16</v>
@@ -3804,7 +3804,7 @@
         <v>50</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>3902.785746875</v>
+        <v>4082.7285975</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>17</v>
@@ -3821,7 +3821,7 @@
         <v>51</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>3686.940953125</v>
+        <v>3289.8527625</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>18</v>
@@ -3838,7 +3838,7 @@
         <v>52</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2170.21244126471</v>
+        <v>2256.16995301176</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>19</v>
@@ -3855,7 +3855,7 @@
         <v>53</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>20439.0602828125</v>
+        <v>18776.44822625</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>20</v>
@@ -3872,7 +3872,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>10518.0089264994</v>
+        <v>10297.0071411995</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>21</v>
@@ -3889,7 +3889,7 @@
         <v>55</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>18091.9459709375</v>
+        <v>16889.85677675</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>22</v>
@@ -3906,7 +3906,7 @@
         <v>56</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>50319.3169475</v>
+        <v>51282.053558</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>23</v>
@@ -3923,7 +3923,7 @@
         <v>57</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2299.81875</v>
+        <v>1964.055</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>24</v>
@@ -3940,7 +3940,7 @@
         <v>58</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>259.477</v>
+        <v>220.9816</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>25</v>
@@ -3957,7 +3957,7 @@
         <v>59</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>38738.5650275</v>
+        <v>38281.152022</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>26</v>
@@ -3974,7 +3974,7 @@
         <v>60</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>848.0975</v>
+        <v>807.178</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>27</v>
@@ -3991,7 +3991,7 @@
         <v>61</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1505.1423125</v>
+        <v>1336.71385</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>28</v>
@@ -4008,7 +4008,7 @@
         <v>62</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>489.8724375</v>
+        <v>569.09795</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>29</v>
@@ -4025,7 +4025,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>5.665</v>
+        <v>6.532</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>30</v>
@@ -4042,7 +4042,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>5163.498125</v>
+        <v>4300.1985</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>6</v>
@@ -4059,7 +4059,7 @@
         <v>40</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>58.128</v>
+        <v>69.6024</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>7</v>
@@ -4076,7 +4076,7 @@
         <v>41</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>4393.9</v>
+        <v>3567.42</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
@@ -4093,7 +4093,7 @@
         <v>42</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>6397.31413461538</v>
+        <v>5943.62823076923</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>9</v>
@@ -4110,7 +4110,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.22975</v>
+        <v>0.1838</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>10</v>
@@ -4161,7 +4161,7 @@
         <v>46</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>139.911875</v>
+        <v>111.9295</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>13</v>
@@ -4178,7 +4178,7 @@
         <v>47</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>25.147375</v>
+        <v>38.8179</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>14</v>
@@ -4195,7 +4195,7 @@
         <v>48</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>6908.721125</v>
+        <v>7225.6769</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>15</v>
@@ -4212,7 +4212,7 @@
         <v>49</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1253.097484375</v>
+        <v>1030.1779875</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>16</v>
@@ -4229,7 +4229,7 @@
         <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>17</v>
@@ -4263,7 +4263,7 @@
         <v>52</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>46984.6072285478</v>
+        <v>49271.3857828382</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>19</v>
@@ -4280,7 +4280,7 @@
         <v>53</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>104.625</v>
+        <v>83.7</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>20</v>
@@ -4297,7 +4297,7 @@
         <v>54</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>21</v>
@@ -4314,7 +4314,7 @@
         <v>55</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>22</v>
@@ -4331,7 +4331,7 @@
         <v>56</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>40084.336793125</v>
+        <v>41508.6694345</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>23</v>
@@ -4348,7 +4348,7 @@
         <v>57</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>8034.915515625</v>
+        <v>7549.9324125</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>24</v>
@@ -4365,7 +4365,7 @@
         <v>58</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>152.5929375</v>
+        <v>221.27435</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>25</v>
@@ -4382,7 +4382,7 @@
         <v>59</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>11643.86672625</v>
+        <v>11813.293381</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>26</v>
@@ -4399,7 +4399,7 @@
         <v>60</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>2.867475</v>
+        <v>2.29398</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>27</v>
@@ -4450,7 +4450,7 @@
         <v>63</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>12.375</v>
+        <v>9.9</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>30</v>
@@ -4518,7 +4518,7 @@
         <v>42</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>181.832875</v>
+        <v>200.420146153846</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>9</v>
@@ -4535,7 +4535,7 @@
         <v>43</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>5.625</v>
+        <v>4.5</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>10</v>
@@ -4620,7 +4620,7 @@
         <v>48</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>84.625</v>
+        <v>98.9</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>15</v>
@@ -4637,7 +4637,7 @@
         <v>49</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>9831.826375</v>
+        <v>10027.3611</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>16</v>
@@ -4688,7 +4688,7 @@
         <v>52</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1319.2899117625</v>
+        <v>1462.83192941</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>19</v>
@@ -4705,7 +4705,7 @@
         <v>53</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>899.9855</v>
+        <v>744.4884</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>20</v>
@@ -4722,7 +4722,7 @@
         <v>54</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>21</v>
@@ -4739,7 +4739,7 @@
         <v>55</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>132.9</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>22</v>
@@ -4756,7 +4756,7 @@
         <v>56</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>4307.745</v>
+        <v>5178.996</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>23</v>
@@ -4790,7 +4790,7 @@
         <v>58</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>25</v>
@@ -4807,7 +4807,7 @@
         <v>59</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1768.978275</v>
+        <v>1748.18262</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>26</v>
@@ -4875,7 +4875,7 @@
         <v>63</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>30</v>
